--- a/Data_clean/MCAS/Estados_US/Edos_USA_2015/ALABAMA_2015.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2015/ALABAMA_2015.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1113"/>
+  <dimension ref="A1:D1107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -745,7 +745,7 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C28">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C31">
@@ -849,7 +849,7 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C36">
@@ -1044,7 +1044,7 @@
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C51">
@@ -1096,7 +1096,7 @@
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C55">
@@ -1187,7 +1187,7 @@
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C62">
@@ -1200,7 +1200,7 @@
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C63">
@@ -1556,7 +1556,7 @@
     <row r="90">
       <c r="B90" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C90">
@@ -1699,7 +1699,7 @@
     <row r="101">
       <c r="B101" t="inlineStr">
         <is>
-          <t>San Francisco de Conchos</t>
+          <t>San Francisco De Conchos</t>
         </is>
       </c>
       <c r="C101">
@@ -1745,7 +1745,7 @@
         <v>77</v>
       </c>
       <c r="D104">
-        <v>0.009595015576323987</v>
+        <v>0.009595015576323989</v>
       </c>
     </row>
     <row r="105">
@@ -1925,7 +1925,7 @@
     <row r="118">
       <c r="B118" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C118">
@@ -2047,7 +2047,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -2104,7 +2104,7 @@
     <row r="131">
       <c r="B131" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C131">
@@ -2421,7 +2421,7 @@
     <row r="155">
       <c r="B155" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C155">
@@ -2486,7 +2486,7 @@
     <row r="160">
       <c r="B160" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C160">
@@ -2499,7 +2499,7 @@
     <row r="161">
       <c r="B161" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C161">
@@ -2512,7 +2512,7 @@
     <row r="162">
       <c r="B162" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C162">
@@ -2590,12 +2590,12 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C168">
@@ -2621,7 +2621,7 @@
     <row r="170">
       <c r="B170" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C170">
@@ -2686,7 +2686,7 @@
     <row r="175">
       <c r="B175" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C175">
@@ -2751,7 +2751,7 @@
     <row r="180">
       <c r="B180" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C180">
@@ -2790,7 +2790,7 @@
     <row r="183">
       <c r="B183" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C183">
@@ -2855,7 +2855,7 @@
     <row r="188">
       <c r="B188" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C188">
@@ -2933,7 +2933,7 @@
     <row r="194">
       <c r="B194" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C194">
@@ -3024,7 +3024,7 @@
     <row r="201">
       <c r="B201" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C201">
@@ -3102,7 +3102,7 @@
     <row r="207">
       <c r="B207" t="inlineStr">
         <is>
-          <t>San Antonio la Isla</t>
+          <t>San Antonio La Isla</t>
         </is>
       </c>
       <c r="C207">
@@ -3115,7 +3115,7 @@
     <row r="208">
       <c r="B208" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C208">
@@ -3128,7 +3128,7 @@
     <row r="209">
       <c r="B209" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C209">
@@ -3323,7 +3323,7 @@
     <row r="224">
       <c r="B224" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C224">
@@ -3375,7 +3375,7 @@
     <row r="228">
       <c r="B228" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C228">
@@ -3523,7 +3523,7 @@
     <row r="239">
       <c r="B239" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C239">
@@ -3536,7 +3536,7 @@
     <row r="240">
       <c r="B240" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C240">
@@ -3549,7 +3549,7 @@
     <row r="241">
       <c r="B241" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C241">
@@ -3640,7 +3640,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C248">
@@ -3692,7 +3692,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C252">
@@ -3783,7 +3783,7 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C259">
@@ -3835,7 +3835,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C263">
@@ -3861,7 +3861,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C265">
@@ -3887,7 +3887,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C267">
@@ -3900,7 +3900,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C268">
@@ -3913,7 +3913,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C269">
@@ -3965,7 +3965,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C273">
@@ -4035,7 +4035,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C278">
@@ -4061,7 +4061,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C280">
@@ -4074,7 +4074,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C281">
@@ -4126,7 +4126,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C285">
@@ -4139,7 +4139,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C286">
@@ -4178,7 +4178,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C289">
@@ -4191,7 +4191,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C290">
@@ -4204,7 +4204,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C291">
@@ -4217,7 +4217,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C292">
@@ -4269,7 +4269,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C296">
@@ -4282,7 +4282,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C297">
@@ -4321,7 +4321,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C300">
@@ -4334,7 +4334,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C301">
@@ -4412,7 +4412,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C307">
@@ -4425,7 +4425,7 @@
     <row r="308">
       <c r="B308" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C308">
@@ -4451,7 +4451,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C310">
@@ -4490,7 +4490,7 @@
     <row r="313">
       <c r="B313" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C313">
@@ -4672,7 +4672,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C327">
@@ -4698,7 +4698,7 @@
     <row r="329">
       <c r="B329" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C329">
@@ -4724,7 +4724,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C331">
@@ -4750,7 +4750,7 @@
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C333">
@@ -4789,7 +4789,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C336">
@@ -4976,7 +4976,7 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C350">
@@ -4989,7 +4989,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C351">
@@ -5041,7 +5041,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C355">
@@ -5067,7 +5067,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C357">
@@ -5106,7 +5106,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C360">
@@ -5145,7 +5145,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C363">
@@ -5197,7 +5197,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C367">
@@ -5210,7 +5210,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C368">
@@ -5223,7 +5223,7 @@
     <row r="369">
       <c r="B369" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C369">
@@ -5236,7 +5236,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C370">
@@ -5262,7 +5262,7 @@
     <row r="372">
       <c r="B372" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C372">
@@ -5275,7 +5275,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C373">
@@ -5288,7 +5288,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C374">
@@ -5327,7 +5327,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C377">
@@ -5392,7 +5392,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C382">
@@ -5444,7 +5444,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C386">
@@ -5457,7 +5457,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C387">
@@ -5483,7 +5483,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C389">
@@ -5535,7 +5535,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C393">
@@ -5548,7 +5548,7 @@
     <row r="394">
       <c r="B394" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C394">
@@ -5587,7 +5587,7 @@
     <row r="397">
       <c r="B397" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C397">
@@ -5600,7 +5600,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C398">
@@ -5644,7 +5644,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C401">
@@ -5761,7 +5761,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C410">
@@ -5800,7 +5800,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C413">
@@ -5839,7 +5839,7 @@
     <row r="416">
       <c r="B416" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C416">
@@ -5878,7 +5878,7 @@
     <row r="419">
       <c r="B419" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C419">
@@ -5943,7 +5943,7 @@
     <row r="424">
       <c r="B424" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C424">
@@ -6008,7 +6008,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C429">
@@ -6021,7 +6021,7 @@
     <row r="430">
       <c r="B430" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C430">
@@ -6047,7 +6047,7 @@
     <row r="432">
       <c r="B432" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C432">
@@ -6060,7 +6060,7 @@
     <row r="433">
       <c r="B433" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C433">
@@ -6086,7 +6086,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C435">
@@ -6099,7 +6099,7 @@
     <row r="436">
       <c r="B436" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C436">
@@ -6138,7 +6138,7 @@
     <row r="439">
       <c r="B439" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C439">
@@ -6151,7 +6151,7 @@
     <row r="440">
       <c r="B440" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C440">
@@ -6177,7 +6177,7 @@
     <row r="442">
       <c r="B442" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C442">
@@ -6268,7 +6268,7 @@
     <row r="449">
       <c r="B449" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C449">
@@ -6281,7 +6281,7 @@
     <row r="450">
       <c r="B450" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C450">
@@ -6320,7 +6320,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C453">
@@ -6333,7 +6333,7 @@
     <row r="454">
       <c r="B454" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C454">
@@ -6359,7 +6359,7 @@
     <row r="456">
       <c r="B456" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C456">
@@ -6372,7 +6372,7 @@
     <row r="457">
       <c r="B457" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C457">
@@ -6624,7 +6624,7 @@
     <row r="476">
       <c r="B476" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C476">
@@ -6650,7 +6650,7 @@
     <row r="478">
       <c r="B478" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C478">
@@ -7300,7 +7300,7 @@
     <row r="528">
       <c r="B528" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C528">
@@ -7541,7 +7541,7 @@
         <v>731</v>
       </c>
       <c r="D546">
-        <v>0.09109034267912773</v>
+        <v>0.09109034267912772</v>
       </c>
     </row>
     <row r="547">
@@ -7669,7 +7669,7 @@
     <row r="556">
       <c r="B556" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C556">
@@ -7721,7 +7721,7 @@
     <row r="560">
       <c r="B560" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C560">
@@ -7799,7 +7799,7 @@
     <row r="566">
       <c r="B566" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C566">
@@ -7856,7 +7856,7 @@
     <row r="570">
       <c r="B570" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C570">
@@ -7908,7 +7908,7 @@
     <row r="574">
       <c r="B574" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C574">
@@ -8108,7 +8108,7 @@
     <row r="589">
       <c r="B589" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C589">
@@ -8139,7 +8139,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C591">
@@ -8178,7 +8178,7 @@
     <row r="594">
       <c r="B594" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C594">
@@ -8191,7 +8191,7 @@
     <row r="595">
       <c r="B595" t="inlineStr">
         <is>
-          <t>Chiquihuitlán de Benito Juárez</t>
+          <t>Chiquihuitlán De Benito Juárez</t>
         </is>
       </c>
       <c r="C595">
@@ -8217,7 +8217,7 @@
     <row r="597">
       <c r="B597" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C597">
@@ -8243,7 +8243,7 @@
     <row r="599">
       <c r="B599" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C599">
@@ -8269,7 +8269,7 @@
     <row r="601">
       <c r="B601" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C601">
@@ -8282,7 +8282,7 @@
     <row r="602">
       <c r="B602" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C602">
@@ -8295,7 +8295,7 @@
     <row r="603">
       <c r="B603" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C603">
@@ -8308,7 +8308,7 @@
     <row r="604">
       <c r="B604" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C604">
@@ -8321,7 +8321,7 @@
     <row r="605">
       <c r="B605" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C605">
@@ -8334,7 +8334,7 @@
     <row r="606">
       <c r="B606" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C606">
@@ -8399,7 +8399,7 @@
     <row r="611">
       <c r="B611" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C611">
@@ -8425,7 +8425,7 @@
     <row r="613">
       <c r="B613" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C613">
@@ -8438,7 +8438,7 @@
     <row r="614">
       <c r="B614" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C614">
@@ -8451,7 +8451,7 @@
     <row r="615">
       <c r="B615" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C615">
@@ -8464,7 +8464,7 @@
     <row r="616">
       <c r="B616" t="inlineStr">
         <is>
-          <t>Reforma de Pineda</t>
+          <t>Reforma De Pineda</t>
         </is>
       </c>
       <c r="C616">
@@ -8750,7 +8750,7 @@
     <row r="638">
       <c r="B638" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C638">
@@ -8945,7 +8945,7 @@
     <row r="653">
       <c r="B653" t="inlineStr">
         <is>
-          <t>San Martín de los Cansecos</t>
+          <t>San Martín De Los Cansecos</t>
         </is>
       </c>
       <c r="C653">
@@ -9257,7 +9257,7 @@
     <row r="677">
       <c r="B677" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C677">
@@ -9270,7 +9270,7 @@
     <row r="678">
       <c r="B678" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Tequixtepec</t>
+          <t>San Pedro Y San Pablo Tequixtepec</t>
         </is>
       </c>
       <c r="C678">
@@ -9439,7 +9439,7 @@
     <row r="691">
       <c r="B691" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C691">
@@ -9790,7 +9790,7 @@
     <row r="718">
       <c r="B718" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C718">
@@ -9881,7 +9881,7 @@
     <row r="725">
       <c r="B725" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C725">
@@ -9894,7 +9894,7 @@
     <row r="726">
       <c r="B726" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C726">
@@ -9907,7 +9907,7 @@
     <row r="727">
       <c r="B727" t="inlineStr">
         <is>
-          <t>Teococuilco de Marcos Pérez</t>
+          <t>Teococuilco De Marcos Pérez</t>
         </is>
       </c>
       <c r="C727">
@@ -9920,7 +9920,7 @@
     <row r="728">
       <c r="B728" t="inlineStr">
         <is>
-          <t>Tepelmeme Villa de Morelos</t>
+          <t>Tepelmeme Villa De Morelos</t>
         </is>
       </c>
       <c r="C728">
@@ -9946,7 +9946,7 @@
     <row r="730">
       <c r="B730" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C730">
@@ -9972,7 +9972,7 @@
     <row r="732">
       <c r="B732" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C732">
@@ -9985,7 +9985,7 @@
     <row r="733">
       <c r="B733" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C733">
@@ -9998,7 +9998,7 @@
     <row r="734">
       <c r="B734" t="inlineStr">
         <is>
-          <t>Villa Tejúpam de la Unión</t>
+          <t>Villa Tejúpam De La Unión</t>
         </is>
       </c>
       <c r="C734">
@@ -10011,7 +10011,7 @@
     <row r="735">
       <c r="B735" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C735">
@@ -10133,7 +10133,7 @@
     <row r="744">
       <c r="B744" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C744">
@@ -10146,7 +10146,7 @@
     <row r="745">
       <c r="B745" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C745">
@@ -10198,7 +10198,7 @@
     <row r="749">
       <c r="B749" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C749">
@@ -10289,7 +10289,7 @@
     <row r="756">
       <c r="B756" t="inlineStr">
         <is>
-          <t>Huitzilan de Serdán</t>
+          <t>Huitzilan De Serdán</t>
         </is>
       </c>
       <c r="C756">
@@ -10302,7 +10302,7 @@
     <row r="757">
       <c r="B757" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C757">
@@ -10328,7 +10328,7 @@
     <row r="759">
       <c r="B759" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C759">
@@ -10380,7 +10380,7 @@
     <row r="763">
       <c r="B763" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C763">
@@ -10510,7 +10510,7 @@
     <row r="773">
       <c r="B773" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C773">
@@ -10601,7 +10601,7 @@
     <row r="780">
       <c r="B780" t="inlineStr">
         <is>
-          <t>Tepango de Rodríguez</t>
+          <t>Tepango De Rodríguez</t>
         </is>
       </c>
       <c r="C780">
@@ -10640,7 +10640,7 @@
     <row r="783">
       <c r="B783" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C783">
@@ -10653,7 +10653,7 @@
     <row r="784">
       <c r="B784" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C784">
@@ -10705,7 +10705,7 @@
     <row r="788">
       <c r="B788" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C788">
@@ -10822,7 +10822,7 @@
     <row r="797">
       <c r="B797" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C797">
@@ -10905,7 +10905,7 @@
       </c>
       <c r="B803" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C803">
@@ -10931,7 +10931,7 @@
     <row r="805">
       <c r="B805" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C805">
@@ -10996,7 +10996,7 @@
     <row r="810">
       <c r="B810" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C810">
@@ -11009,7 +11009,7 @@
     <row r="811">
       <c r="B811" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C811">
@@ -11048,7 +11048,7 @@
     <row r="814">
       <c r="B814" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C814">
@@ -11149,7 +11149,7 @@
     <row r="821">
       <c r="B821" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C821">
@@ -11214,7 +11214,7 @@
     <row r="826">
       <c r="B826" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C826">
@@ -11305,7 +11305,7 @@
     <row r="833">
       <c r="B833" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C833">
@@ -11383,7 +11383,7 @@
     <row r="839">
       <c r="B839" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C839">
@@ -11448,7 +11448,7 @@
     <row r="844">
       <c r="B844" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C844">
@@ -11552,7 +11552,7 @@
     <row r="852">
       <c r="B852" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C852">
@@ -11565,7 +11565,7 @@
     <row r="853">
       <c r="B853" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C853">
@@ -11578,7 +11578,7 @@
     <row r="854">
       <c r="B854" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C854">
@@ -11591,7 +11591,7 @@
     <row r="855">
       <c r="B855" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C855">
@@ -11604,7 +11604,7 @@
     <row r="856">
       <c r="B856" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C856">
@@ -12378,7 +12378,7 @@
     <row r="914">
       <c r="B914" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C914">
@@ -12552,7 +12552,7 @@
     <row r="927">
       <c r="B927" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C927">
@@ -12700,7 +12700,7 @@
     <row r="938">
       <c r="B938" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C938">
@@ -12739,7 +12739,7 @@
     <row r="941">
       <c r="B941" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C941">
@@ -12895,7 +12895,7 @@
     <row r="953">
       <c r="B953" t="inlineStr">
         <is>
-          <t>Camarón de Tejeda</t>
+          <t>Camarón De Tejeda</t>
         </is>
       </c>
       <c r="C953">
@@ -12921,7 +12921,7 @@
     <row r="955">
       <c r="B955" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C955">
@@ -12947,7 +12947,7 @@
     <row r="957">
       <c r="B957" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C957">
@@ -13116,7 +13116,7 @@
     <row r="970">
       <c r="B970" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C970">
@@ -13129,7 +13129,7 @@
     <row r="971">
       <c r="B971" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C971">
@@ -13298,7 +13298,7 @@
     <row r="984">
       <c r="B984" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C984">
@@ -13311,7 +13311,7 @@
     <row r="985">
       <c r="B985" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C985">
@@ -13350,7 +13350,7 @@
     <row r="988">
       <c r="B988" t="inlineStr">
         <is>
-          <t>Ixhuacán de los Reyes</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C988">
@@ -13363,7 +13363,7 @@
     <row r="989">
       <c r="B989" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C989">
@@ -13480,7 +13480,7 @@
     <row r="998">
       <c r="B998" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C998">
@@ -13545,7 +13545,7 @@
     <row r="1003">
       <c r="B1003" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1003">
@@ -13584,7 +13584,7 @@
     <row r="1006">
       <c r="B1006" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1006">
@@ -13636,7 +13636,7 @@
     <row r="1010">
       <c r="B1010" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C1010">
@@ -13727,7 +13727,7 @@
     <row r="1017">
       <c r="B1017" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C1017">
@@ -13766,7 +13766,7 @@
     <row r="1020">
       <c r="B1020" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1020">
@@ -13779,7 +13779,7 @@
     <row r="1021">
       <c r="B1021" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1021">
@@ -13818,7 +13818,7 @@
     <row r="1024">
       <c r="B1024" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1024">
@@ -13909,7 +13909,7 @@
     <row r="1031">
       <c r="B1031" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1031">
@@ -13961,7 +13961,7 @@
     <row r="1035">
       <c r="B1035" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1035">
@@ -14260,7 +14260,7 @@
     <row r="1058">
       <c r="B1058" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1058">
@@ -14569,7 +14569,7 @@
     <row r="1081">
       <c r="B1081" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C1081">
@@ -14803,7 +14803,7 @@
     <row r="1099">
       <c r="B1099" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1099">
@@ -14842,7 +14842,7 @@
     <row r="1102">
       <c r="B1102" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1102">
@@ -14915,41 +14915,6 @@
       </c>
       <c r="D1107">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1109">
-      <c r="A1109" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 1,114,005</t>
-        </is>
-      </c>
-    </row>
-    <row r="1110">
-      <c r="A1110" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1111">
-      <c r="A1111" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1112">
-      <c r="A1112" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1113">
-      <c r="A1113" t="inlineStr">
-        <is>
-          <t>Junio de 2016</t>
-        </is>
       </c>
     </row>
   </sheetData>
